--- a/pred_ohlcv/54_21/2020-01-15 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3466267.6749</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3637233.7849</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3800850.3557</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4045614.2195</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4711750.504000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-5913683.683400001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6137201.734200003</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6289463.433930819</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6570441.764830817</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-6570282.998130818</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-6694504.729430818</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6749554.371230818</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6749382.910930818</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6788156.872530818</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6780355.665330818</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6833425.080930818</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-15353368.57989101</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 PLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3637353.7849</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3643660.4246</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3643544.4246</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3783097.8874</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3782981.8874</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3852488.3124</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3800850.3557</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4045614.2195</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4769586.2574</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6143479.194200002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-6330413.530900002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6197302.877500001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6364120.818200001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6364004.818200001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6423649.454500001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6091486.003900003</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6137201.734200003</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5994451.907300003</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6289463.433930819</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-6393755.133930819</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-6299066.832430819</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6315215.882530819</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6679906.135830818</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6570441.764830817</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-6570282.998130818</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-6694504.729430818</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6695874.617030818</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6695684.328630818</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6749554.371230818</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6749382.910930818</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6788156.872530818</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6780355.665330818</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6833425.080930818</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6808307.348218211</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7791577.551418211</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-15690368.79079101</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-15690520.29779101</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15839871.81769101</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15824871.81769101</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-15353368.57989101</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
